--- a/data/trans_camb/P1423-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -587,11 +615,14 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,99</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,54</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>-0,16</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,38; 5,24</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-2,85; 0,95</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-1,59; 2,94</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 8,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>-1,16; 0,91</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>-0,48; 2,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 5,11</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1057,58%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-39,01%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>21,2%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>147,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-12,02%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>52,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>200,89%</t>
         </is>
       </c>
     </row>
@@ -725,29 +801,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-83,29; 71,99</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-48,69; 191,95</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 482,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>-63,79; 114,33</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>-30,27; 238,42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 541,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -767,22 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,85</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,11</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-0,88</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -805,22 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-0,93; 3,14</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-1,38; 3,08</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-3,02; 0,76</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 6,32</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>-0,36; 2,44</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>-1,92; 0,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,04</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>32,47%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>24,19%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-31,48%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>84,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>38,09%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>-33,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77,14%</t>
         </is>
       </c>
     </row>
@@ -881,29 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-42,07; 250,15</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-31,04; 125,9</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-66,85; 34,69</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 241,51</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>-15,08; 109,68</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>-59,71; 17,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 187,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,22 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,95</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,41</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>0,16</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>0,74; 5,9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>1,05; 6,99</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-1,57; 3,58</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>0,63; 4,34</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>-1,37; 1,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 3,95</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>98,57%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>67,78%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>16,63%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>54,09%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>3,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47,51%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>12,73; 265,39</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>13,21; 153,36</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-21,56; 76,08</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-22,99; 87,68</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>10,08; 121,21</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>-26,43; 54,85</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 104,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1079,22 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>1,39</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>0,79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-1,71; 5,85</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-2,47; 5,36</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>-3,64; 4,2</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 4,57</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>-0,62; 3,74</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>-1,41; 3,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 4,15</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>84,9%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>11,68%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>4,47%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>19,62%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>11,13%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -1193,29 +1449,44 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>-39,28; 250,83</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>-18,81; 60,09</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-27,81; 45,34</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-15,86; 50,67</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-7,71; 61,69</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>-16,99; 49,74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-25,58; 64,31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1235,22 +1506,37 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>5,56</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>4,94</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>3,61</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>3,01</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1559,37 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>0,59; 7,1</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>0,75; 10,6</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>-0,27; 9,63</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 8,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>0,77; 6,66</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>-0,09; 6,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 6,76</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1612,37 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>71,05%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>43,11%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>38,34%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>38,71%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>32,3%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45,09%</t>
         </is>
       </c>
     </row>
@@ -1349,29 +1665,44 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>7,67; 188,67</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>4,05; 95,92</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>-1,71; 96,24</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 85,5</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>7,31; 85,44</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>-0,94; 77,74</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 88,55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,1</t>
+          <t>-3,86; 3,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,77</t>
+          <t>-5,66; 0,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,47</t>
+          <t>-3,79; 2,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,93</t>
+          <t>2,29; 12,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,22</t>
+          <t>0,15; 10,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,59</t>
+          <t>-10,19; 5,3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 7,27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 5,02</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 2,8</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>-44,66%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>65,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>-12,69%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>47,13%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 72,24</t>
+          <t>-56,5; 105,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-57,25; 18,94</t>
+          <t>-77,39; 22,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>37,94; 140,95</t>
+          <t>-52,03; 68,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13,12; 98,89</t>
+          <t>16,53; 139,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,45; 93,78</t>
+          <t>0,45; 113,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 60,82</t>
+          <t>-68,83; 48,82</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 98,01</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 70,98</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-56,1; 35,01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,61</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,01</t>
+          <t>-5,17; 4,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,01</t>
+          <t>-5,89; 2,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,19</t>
+          <t>-2,72; 5,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,99</t>
+          <t>3,64; 14,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,36</t>
+          <t>0,35; 10,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,23</t>
+          <t>2,0; 10,69</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 9,17</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 6,51</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 7,84</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>-14,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>66,1%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>64,03%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>33,2%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>53,04%</t>
         </is>
       </c>
     </row>
@@ -1651,50 +2087,282 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-56,84; 121,87</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-60,06; 64,98</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 133,84</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>27,35; 187,99</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 144,41</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 153,24</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 127,93</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 90,28</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 126,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 2,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 1,01</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 3,63</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 5,19</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 3,99</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 5,03</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 3,36</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 2,23</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 4,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>34,58%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>84,38%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>49,94%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>33,92%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>46,26%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>45,8%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>58,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,43; 74,85</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-21,42; 38,12</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 134,14</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>30,21; 74,69</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>13,69; 57,96</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 72,07</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>28,41; 67,65</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>9,0; 45,16</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>34,58; 82,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P1423-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,87</t>
+          <t>-0,03; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,31</t>
+          <t>0,04; 2,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 5,24</t>
+          <t>0,46; 5,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,95</t>
+          <t>-2,88; 0,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,94</t>
+          <t>-1,49; 2,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,44</t>
+          <t>0,48; 8,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,91</t>
+          <t>-1,28; 0,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,0</t>
+          <t>-0,49; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,11</t>
+          <t>0,85; 5,48</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,29; 71,99</t>
+          <t>-82,19; 61,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 191,95</t>
+          <t>-46,32; 179,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 482,22</t>
+          <t>1,3; 526,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,79; 114,33</t>
+          <t>-65,77; 99,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 238,42</t>
+          <t>-33,66; 204,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 541,32</t>
+          <t>34,51; 609,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,87</t>
+          <t>-0,4; 2,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,55</t>
+          <t>-2,17; 0,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,14</t>
+          <t>-1,13; 2,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,08</t>
+          <t>-1,45; 3,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,76</t>
+          <t>-3,04; 0,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,32</t>
+          <t>-0,32; 5,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,44</t>
+          <t>-0,47; 2,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,29</t>
+          <t>-2,04; 0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,04</t>
+          <t>0,22; 4,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 216,35</t>
+          <t>-19,05; 224,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,86; 52,83</t>
+          <t>-79,16; 44,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 250,15</t>
+          <t>-48,44; 226,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 125,9</t>
+          <t>-32,72; 118,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 34,69</t>
+          <t>-67,02; 32,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 241,51</t>
+          <t>-7,75; 213,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 109,68</t>
+          <t>-15,09; 120,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 17,56</t>
+          <t>-61,86; 16,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 187,7</t>
+          <t>6,9; 187,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,2</t>
+          <t>-1,16; 3,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,39</t>
+          <t>-2,33; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,9</t>
+          <t>0,71; 5,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,99</t>
+          <t>0,81; 6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,58</t>
+          <t>-1,74; 3,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,87</t>
+          <t>-1,3; 4,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,34</t>
+          <t>0,74; 4,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,81</t>
+          <t>-1,43; 1,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,95</t>
+          <t>0,26; 3,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 145,44</t>
+          <t>-32,55; 152,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,41; 70,53</t>
+          <t>-59,78; 66,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,73; 265,39</t>
+          <t>14,71; 277,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 153,36</t>
+          <t>9,0; 142,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 76,08</t>
+          <t>-27,67; 73,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 87,68</t>
+          <t>-20,37; 86,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 121,21</t>
+          <t>12,53; 117,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 54,85</t>
+          <t>-27,36; 44,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 104,91</t>
+          <t>1,77; 105,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,02</t>
+          <t>-0,89; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,2</t>
+          <t>-1,27; 3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 5,85</t>
+          <t>-1,4; 5,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,36</t>
+          <t>-2,72; 4,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 4,2</t>
+          <t>-3,15; 4,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,57</t>
+          <t>-2,63; 4,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,74</t>
+          <t>-1,08; 3,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,03</t>
+          <t>-1,11; 3,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,15</t>
+          <t>-2,06; 4,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 220,82</t>
+          <t>-23,76; 198,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 181,37</t>
+          <t>-32,09; 164,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 250,83</t>
+          <t>-35,03; 229,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 60,09</t>
+          <t>-19,46; 53,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 45,34</t>
+          <t>-25,02; 44,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 50,67</t>
+          <t>-19,07; 50,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 61,69</t>
+          <t>-12,33; 58,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 49,74</t>
+          <t>-13,18; 57,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 64,31</t>
+          <t>-26,53; 63,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,23</t>
+          <t>-1,72; 4,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,12</t>
+          <t>-2,09; 4,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,1</t>
+          <t>0,67; 7,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 10,6</t>
+          <t>0,39; 10,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 9,63</t>
+          <t>0,0; 9,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,61</t>
+          <t>0,07; 8,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,66</t>
+          <t>0,51; 6,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,07</t>
+          <t>0,04; 6,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,76</t>
+          <t>1,52; 6,62</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 127,1</t>
+          <t>-25,51; 119,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 104,14</t>
+          <t>-32,81; 100,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7,67; 188,67</t>
+          <t>6,34; 182,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,05; 95,92</t>
+          <t>1,97; 96,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 96,24</t>
+          <t>1,93; 98,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,44; 85,5</t>
+          <t>-1,33; 82,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,31; 85,44</t>
+          <t>4,3; 81,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 77,74</t>
+          <t>-0,65; 75,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,83; 88,55</t>
+          <t>13,44; 85,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,81</t>
+          <t>-3,36; 4,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,57</t>
+          <t>-5,28; 0,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,28</t>
+          <t>-4,09; 2,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,29; 12,9</t>
+          <t>2,48; 13,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,66</t>
+          <t>0,37; 10,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 5,3</t>
+          <t>-10,19; 5,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,27</t>
+          <t>0,64; 7,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 5,02</t>
+          <t>-1,0; 5,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,8</t>
+          <t>-5,38; 2,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-56,5; 105,18</t>
+          <t>-51,71; 116,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,39; 22,23</t>
+          <t>-76,4; 18,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 68,13</t>
+          <t>-55,45; 54,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,53; 139,25</t>
+          <t>18,23; 143,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,45; 113,33</t>
+          <t>2,69; 109,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 48,82</t>
+          <t>-69,86; 47,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,6; 98,01</t>
+          <t>5,91; 96,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 70,98</t>
+          <t>-10,15; 70,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 35,01</t>
+          <t>-53,03; 34,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 4,92</t>
+          <t>-5,36; 4,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 2,62</t>
+          <t>-5,67; 3,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,86</t>
+          <t>-2,79; 6,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,05</t>
+          <t>3,57; 14,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,35; 10,55</t>
+          <t>0,36; 11,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,69</t>
+          <t>1,96; 10,37</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,17</t>
+          <t>1,52; 9,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,51</t>
+          <t>-1,08; 6,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,84</t>
+          <t>1,57; 8,08</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 121,87</t>
+          <t>-57,25; 98,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 64,98</t>
+          <t>-57,7; 77,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 133,84</t>
+          <t>-29,48; 141,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>27,35; 187,99</t>
+          <t>26,29; 206,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>1,23; 144,41</t>
+          <t>0,7; 147,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>14,59; 153,24</t>
+          <t>14,76; 147,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>15,86; 127,93</t>
+          <t>13,75; 133,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 90,28</t>
+          <t>-11,65; 87,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>11,34; 126,63</t>
+          <t>13,68; 123,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,01</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,01</t>
+          <t>-0,66; 0,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,63</t>
+          <t>1,32; 3,7</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,19</t>
+          <t>2,29; 5,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,99</t>
+          <t>1,23; 3,95</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,03</t>
+          <t>1,32; 5,04</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,36</t>
+          <t>1,63; 3,34</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,23</t>
+          <t>0,53; 2,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,08</t>
+          <t>1,93; 4,09</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,43; 74,85</t>
+          <t>5,29; 74,33</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 38,12</t>
+          <t>-19,24; 36,47</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>33,96; 134,14</t>
+          <t>39,35; 137,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>30,21; 74,69</t>
+          <t>27,61; 73,02</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>13,69; 57,96</t>
+          <t>13,9; 56,6</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>18,72; 72,07</t>
+          <t>17,09; 69,94</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>28,41; 67,65</t>
+          <t>27,76; 65,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,0; 45,16</t>
+          <t>9,31; 44,22</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>34,58; 82,55</t>
+          <t>33,4; 81,69</t>
         </is>
       </c>
     </row>
